--- a/templates/dataplant/RNASeq_computational_analysis.xlsx
+++ b/templates/dataplant/RNASeq_computational_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EB99A2-D89C-49CA-9938-15EA336533D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09074C96-07AB-46CF-BE7A-76234A114631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>Source Name</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Transcriptomics</t>
   </si>
   <si>
-    <t>mRNASeq</t>
-  </si>
-  <si>
     <t>Computational Analysis</t>
   </si>
   <si>
@@ -310,21 +307,12 @@
     <t>Protocol REF</t>
   </si>
   <si>
-    <t>RNA-seq</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000003</t>
-  </si>
-  <si>
     <t>NCIT</t>
   </si>
   <si>
-    <t>DPBO</t>
-  </si>
-  <si>
     <t>Parameter [data filtering software]</t>
   </si>
   <si>
@@ -404,6 +392,12 @@
   </si>
   <si>
     <t>RNASeq computational analysis</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>EFO:0008896</t>
   </si>
 </sst>
 </file>
@@ -1030,232 +1024,232 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>82</v>
-      </c>
       <c r="AD1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>43</v>
-      </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" t="s">
-        <v>49</v>
-      </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" s="11"/>
     </row>
@@ -1272,7 +1266,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1319,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,40 +1377,33 @@
         <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1432,16 +1419,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,16 +1436,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1517,7 +1504,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1526,7 +1513,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1535,7 +1522,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1544,7 +1531,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/RNASeq_computational_analysis.xlsx
+++ b/templates/dataplant/RNASeq_computational_analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09074C96-07AB-46CF-BE7A-76234A114631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719BB260-0536-4979-B1E5-3DCF7406E26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/templates/dataplant/RNASeq_computational_analysis.xlsx
+++ b/templates/dataplant/RNASeq_computational_analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -248,13 +248,19 @@
     <t>Term Accession Number (DPBO:0000027)</t>
   </si>
   <si>
-    <t>Output [Derived Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Trimmomatic</t>
+    <t>CLC Genomics Workbench</t>
+  </si>
+  <si>
+    <t>v11.0.1</t>
+  </si>
+  <si>
+    <t>quality limit: 0.05</t>
   </si>
   <si>
     <t>user-specific</t>
@@ -269,28 +275,10 @@
     <t>kallisto quant -b 50 -t 10</t>
   </si>
   <si>
+    <t>B73 RefGen_v4</t>
+  </si>
+  <si>
     <t>.xlsx</t>
-  </si>
-  <si>
-    <t>HiSat2</t>
-  </si>
-  <si>
-    <t>.txt</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>ENVO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01000801</t>
-  </si>
-  <si>
-    <t>.csv</t>
-  </si>
-  <si>
-    <t>BWA</t>
   </si>
 </sst>
 </file>
@@ -346,8 +334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AD5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AD5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AD2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AD2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -409,7 +397,7 @@
     <tableColumn id="27" name="Parameter [processed data file format]" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Source REF (DPBO:0000027)" totalsRowFunction="none"/>
     <tableColumn id="29" name="Term Accession Number (DPBO:0000027)" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Output [Derived Data File]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,7 +915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -1039,7 +1027,7 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>79</v>
@@ -1048,7 +1036,7 @@
         <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -1057,43 +1045,43 @@
         <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
         <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
         <v>79</v>
       </c>
       <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" t="s">
-        <v>81</v>
-      </c>
       <c r="T2" t="s">
         <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W2" t="s">
         <v>79</v>
       </c>
       <c r="X2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Y2" t="s">
         <v>79</v>
@@ -1102,291 +1090,15 @@
         <v>79</v>
       </c>
       <c r="AA2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
         <v>79</v>
       </c>
       <c r="AD2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R5" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" t="s">
         <v>79</v>
       </c>
     </row>

--- a/templates/dataplant/RNASeq_computational_analysis.xlsx
+++ b/templates/dataplant/RNASeq_computational_analysis.xlsx
@@ -176,7 +176,7 @@
     <t>Protocol REF</t>
   </si>
   <si>
-    <t>Parameter [data filtering software]</t>
+    <t>Component [data filtering software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000023)</t>
@@ -203,7 +203,7 @@
     <t>Term Accession Number (DPBO:0000025)</t>
   </si>
   <si>
-    <t>Parameter [read alignment software]</t>
+    <t>Component [read alignment software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:0000002)</t>
@@ -373,7 +373,7 @@
     <tableColumn id="3" name="Term Source REF (DPBO:1000161)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (DPBO:1000161)" totalsRowFunction="none"/>
     <tableColumn id="5" name="Protocol REF" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Parameter [data filtering software]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Component [data filtering software]" totalsRowFunction="none"/>
     <tableColumn id="7" name="Term Source REF (DPBO:0000023)" totalsRowFunction="none"/>
     <tableColumn id="8" name="Term Accession Number (DPBO:0000023)" totalsRowFunction="none"/>
     <tableColumn id="9" name="Parameter [data filtering software version]" totalsRowFunction="none"/>
@@ -382,7 +382,7 @@
     <tableColumn id="12" name="Parameter [data filtering software parameters]" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Source REF (DPBO:0000025)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Term Accession Number (DPBO:0000025)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Parameter [read alignment software]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Component [read alignment software]" totalsRowFunction="none"/>
     <tableColumn id="16" name="Term Source REF (DPBO:0000002)" totalsRowFunction="none"/>
     <tableColumn id="17" name="Term Accession Number (DPBO:0000002)" totalsRowFunction="none"/>
     <tableColumn id="18" name="Parameter [read alignment software version]" totalsRowFunction="none"/>
